--- a/Inventory of Parts.xlsx
+++ b/Inventory of Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMa\Documents\ECE590_SeniorDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB091D4C-B144-4511-BBF1-63D022CFB83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C053F-9E8B-4258-AAB6-F0B84D04A89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>Physical Boards</t>
   </si>
   <si>
-    <t>One fully assembled, one partly assembled</t>
+    <t>One fully assembled, one partly assembled, other 3 blank distrubted among team members</t>
   </si>
 </sst>
 </file>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,18 +89,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,68 +403,68 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
